--- a/output/LPM/instance3_Schedule_vCp2n150s24d1.xlsx
+++ b/output/LPM/instance3_Schedule_vCp2n150s24d1.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JUANA VALESCA LINQUEO ÑANCUL</t>
+          <t>VIVIANA  ALEJANDRA CONTRERAS ERICES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>MIRCY GRACIELA NAVARRO PRADO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,17 +609,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>ALICIA ESTER MELGAREJO AGUAYO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,35 +628,35 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
+          <t>JOSE MANUEL SAGREDO TAPIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -673,37 +673,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALICIA ESTER MELGAREJO AGUAYO</t>
+          <t>DAVID NICOLAS DIAZ CID</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -740,12 +740,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OTORRINO_4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,16 +757,16 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -777,17 +777,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ESTEBAN ANDRES RIFFO FIERRO</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INFANTIL_4</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,16 +799,16 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -819,17 +819,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAEL MAURICIO ESPINOZA ALTAMIRANO</t>
+          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -844,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -861,7 +861,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
+          <t>EMANUEL LLANQUINAO CANSECO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -903,17 +903,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>ESTEBAN ANDRES RIFFO FIERRO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,13 +928,13 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -945,17 +945,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAURA MATUS NECUL</t>
+          <t>MARTIN GONZALEZ MORIS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>13</v>
@@ -987,19 +987,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CRISTOBAL ORLANDO MELLADO CAMPOS</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>INFANTIL_3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>INFANTIL_4</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GINECO_3</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>CIRUGIA INFANTIL</t>
@@ -1009,16 +1009,16 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SOFIA EMILIA GODOY LAGOS</t>
+          <t>MARTIN ALEJANDRO ARTIGAS SUAZO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OTORRINO_4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,16 +1051,16 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LISBETH ANGELICA ULLOA ZAPATA</t>
+          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1124,22 +1124,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LISBETH ANGELICA ULLOA ZAPATA</t>
+          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GENERAL_4</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1148,30 +1148,30 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIRCY GRACIELA NAVARRO PRADO</t>
+          <t>MATIAS FERNANDO SAEZ TORRES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INFANTIL_4</t>
+          <t>GENERAL_4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
+          <t>CAMILA BELEN SANHUEZA ROMERO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OFTALMO_4</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1250,22 +1250,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CAMILA BELEN SANHUEZA ROMERO</t>
+          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1274,40 +1274,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MATIAS FERNANDO SAEZ TORRES</t>
+          <t>NATALIA ANDREA RIFFO ITURRA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OTORRINO_4</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1319,37 +1319,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
+          <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1361,37 +1361,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CESAR FERRADA GUTIERREZ</t>
+          <t>DANIELA MACARENA TORRES VEGA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1403,37 +1403,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
+          <t>CESAR FERRADA GUTIERREZ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GENERAL_4</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>INFANTIL_4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1442,30 +1442,30 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DANIELA MACARENA TORRES VEGA</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VIVIANA ANGELICA DIAZ FIGUEROA</t>
+          <t>CAMILA ANDREA ZAMBRANO DE  LA HOZ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1538,18 +1538,18 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NAYADETH ESTEFANY CHAIHUEQUE ARIAS</t>
+          <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1586,122 +1586,122 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>GENERAL_4</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GRIXY GENESIS SALVO ROJAS</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>BLOQUE 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JOSE GARCES RIQUELME</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TRAUMATO_3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1719,21 +1719,21 @@
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1764,28 +1764,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1803,31 +1803,31 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>7</v>
@@ -1854,22 +1854,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1878,40 +1878,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>PATRICIO NICOLAS RAMIREZ FRITIS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GENERAL_4</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1929,16 +1929,16 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1962,40 +1962,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>INFANTIL_4</t>
+          <t>GINECO_4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2004,35 +2004,35 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2049,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2064,22 +2064,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OTORRINO_4</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2088,40 +2088,40 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JOSE OSCAR ISLA ROCHA</t>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>OFTALMO_4</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OTORRINO_4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2130,40 +2130,40 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OFTALMO_4</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>TRAUMATO_4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2172,40 +2172,40 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GINECO_4</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2214,40 +2214,40 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>OFTALMO_4</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2256,130 +2256,130 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MARGARITA ELENA CASTILLO CISTERNA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>OFTALMO_2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>OFTALMO_4</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>OFTALMOLOGIA</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>7</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>13</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>BLOQUE 1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>JIMENA ROSA CARES ARRIAGADA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+          <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2458,12 +2458,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+          <t>DAMARY DAMIANA AGUIRRE AGUIRRE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TRAUMATO_4</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2500,24 +2500,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JIMENA ROSA CARES ARRIAGADA</t>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>GINECO_4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>GINECO_2</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>OFTALMO_3</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2527,32 +2527,32 @@
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALEJANDRA BEATRIZ BELTRAN DIAZ</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2569,37 +2569,37 @@
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>GINECO_4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRAUMATO_4</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2611,42 +2611,42 @@
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GINECO_4</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2656,76 +2656,76 @@
         <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
+          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GINECO_4</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GENERAL_4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>OTORRINO_4</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>INFANTIL_4</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2737,13 +2737,13 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
         <v>15</v>
@@ -2752,17 +2752,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
+          <t>LAURA CID PONSOT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2779,13 +2779,13 @@
         <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
         <v>15</v>
@@ -2794,22 +2794,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OTORRINO_4</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2821,13 +2821,13 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>15</v>
@@ -2836,22 +2836,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>OTORRINO_4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GENERAL_4</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2863,13 +2863,13 @@
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>15</v>
@@ -2878,12 +2878,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LAURA CID PONSOT</t>
+          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2920,22 +2920,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
+          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2960,88 +2960,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>TRAUMATO_3</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>4</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8</v>
-      </c>
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>OTORRINO_3</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GENERAL_4</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>4</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>15</v>
-      </c>
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
